--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3576345.865135521</v>
+        <v>3680371.916996029</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7654648.78684858</v>
+        <v>7618489.074567025</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>299.1079600617874</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>147.0290144562265</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>28.03704646958048</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>46.32785013185514</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268.8430713734578</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>169.7623589958716</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>40.94023685682412</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>158.6152942883796</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>188.2196394312107</v>
+        <v>396.2171178828388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>49.27845552712587</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>21.88129253963134</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856542</v>
+        <v>59.45282559760398</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>25.73194049497588</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1895,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>96.36494467178768</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>171.9586765026956</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>124.0270735093607</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>79.75167225698534</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2612,10 +2614,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2722,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2764,19 +2766,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>105.11626575513</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>29.6738200803744</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>24.27150084979029</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541843</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808197</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972039</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261718</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>223.8290352905946</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308918</v>
+        <v>61.17550840396451</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>19.67525987919271</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898977</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065883</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261728</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545296</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308917</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002293</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541843</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652597</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808212</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.741638509605</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352457</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317884</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445514</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969976</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>119.6760079449695</v>
+        <v>43.3482415786093</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2196.097994299123</v>
+        <v>1517.887535471217</v>
       </c>
       <c r="C2" t="n">
-        <v>1827.135477358711</v>
+        <v>1148.925018530805</v>
       </c>
       <c r="D2" t="n">
-        <v>1468.86977875196</v>
+        <v>790.6593199240544</v>
       </c>
       <c r="E2" t="n">
-        <v>1083.081526153716</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>672.0956213641086</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>257.0231712091051</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339056</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>2972.837166339056</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y2" t="n">
-        <v>2582.697834363245</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.1346335501037</v>
+        <v>531.7821255545683</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1898.974299129321</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1707.288414956147</v>
       </c>
       <c r="T4" t="n">
-        <v>1598.982398458852</v>
+        <v>1485.521799525673</v>
       </c>
       <c r="U4" t="n">
-        <v>1598.982398458852</v>
+        <v>1485.521799525673</v>
       </c>
       <c r="V4" t="n">
-        <v>1598.982398458852</v>
+        <v>1230.837311319786</v>
       </c>
       <c r="W4" t="n">
-        <v>1309.565228421891</v>
+        <v>941.4201412828254</v>
       </c>
       <c r="X4" t="n">
-        <v>1081.575677523874</v>
+        <v>713.4305903848081</v>
       </c>
       <c r="Y4" t="n">
-        <v>860.7830983803434</v>
+        <v>713.4305903848081</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1343.379050624728</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.5429342656</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X5" t="n">
-        <v>2621.07717600452</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y5" t="n">
-        <v>2230.937844028708</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>594.6215500005598</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="C7" t="n">
-        <v>425.6853670726529</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D7" t="n">
-        <v>275.5687276603171</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>275.5687276603171</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>275.5687276603171</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>107.8658910350361</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1259.157560278959</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>969.7403902419981</v>
       </c>
       <c r="X7" t="n">
-        <v>776.2700148307995</v>
+        <v>809.5229212638368</v>
       </c>
       <c r="Y7" t="n">
-        <v>776.2700148307995</v>
+        <v>809.5229212638368</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038042</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097631</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.40402049088</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926361</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030285</v>
+        <v>764.3150278161827</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102164</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>726.2447449267036</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C10" t="n">
-        <v>557.3085619987967</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D10" t="n">
-        <v>557.3085619987967</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>409.3954684164036</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>262.5055209184932</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5055209184932</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>116.288334136351</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1815.361775149423</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1593.59515971895</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1304.492292844593</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>1049.807804638706</v>
       </c>
       <c r="W10" t="n">
-        <v>1356.675339798491</v>
+        <v>1049.807804638706</v>
       </c>
       <c r="X10" t="n">
-        <v>1128.685788900473</v>
+        <v>1049.807804638706</v>
       </c>
       <c r="Y10" t="n">
-        <v>907.8932097569433</v>
+        <v>829.0152254951761</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5054,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756264</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096665</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356187</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232831</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408901</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429798</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578599</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>153.8700222374709</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258107</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172273</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135312</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237295</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093765</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075813</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5710,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.4638174991043</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711974</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X22" t="n">
-        <v>1268.904861472874</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y22" t="n">
-        <v>1048.112282329344</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1368.15426255076</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1920.063992790047</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6227,40 +6229,40 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>3175.341129796739</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V28" t="n">
-        <v>1582.207807637403</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>3577.782173770509</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>3356.989594626978</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6457,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>417.9651836029414</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>913.2907898187001</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2978.493192213312</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C31" t="n">
-        <v>2834.086956247062</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2708.500263796382</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2585.117117175645</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2462.757116639391</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2320.090964315927</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2202.909080119781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4648.317395612653</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4489.992508229214</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4294.920990213811</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>4030.375710519666</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>3800.221169275435</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>3535.33394620013</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>3331.874342263769</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>3135.611710081896</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6682,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6707,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6792,10 +6794,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2299.457522348532</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.493192213311</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C34" t="n">
-        <v>2834.08695624706</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.500263796382</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>2585.117117175645</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>2462.757116639391</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2320.090964315927</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2202.909080119781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4648.317395612652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4489.992508229213</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4294.92099021381</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4030.375710519664</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V34" t="n">
-        <v>3800.221169275434</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W34" t="n">
-        <v>3535.333946200129</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X34" t="n">
-        <v>3331.874342263768</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y34" t="n">
-        <v>3135.611710081894</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>3006.417838136243</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>3006.417838136243</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>2856.301198723907</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>2708.388105141514</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="38">
@@ -7163,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7239,40 +7241,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2427.089083702288</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2244.234249357192</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2024.632784380133</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7402,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7430,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7494,19 +7496,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319335</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656827</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150031</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384022</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311319</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547833</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838288</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594057</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7633,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,34 +7645,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F46" t="n">
-        <v>296.7882229101285</v>
+        <v>304.7988649377478</v>
       </c>
       <c r="G46" t="n">
-        <v>296.7882229101285</v>
+        <v>137.6027656526277</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>21.81301072096155</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>226.405702828852</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>190.1580536648033</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>206.7713260796057</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>147.021377568698</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>196.0358353086627</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>142.9753202488375</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>84.24553961896675</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.69998683092898</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>20.61870490125438</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656086.3271572143</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>667202.4632966362</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>667202.4632966362</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>667202.4632966362</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>667202.4632966362</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>667202.4632966362</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26319,43 @@
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710696</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710692</v>
-      </c>
-      <c r="O2" t="n">
-        <v>779989.6813710694</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363166</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179365</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>19157.89151488698</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488698</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488698</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488708</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488693</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747043.0719410614</v>
+        <v>-747043.0719410616</v>
       </c>
       <c r="C6" t="n">
-        <v>581701.6737865309</v>
+        <v>581701.6737865307</v>
       </c>
       <c r="D6" t="n">
-        <v>581701.673786531</v>
+        <v>581701.6737865311</v>
       </c>
       <c r="E6" t="n">
-        <v>329087.2458224503</v>
+        <v>329087.24582245</v>
       </c>
       <c r="F6" t="n">
-        <v>654499.7076298053</v>
+        <v>654499.7076298052</v>
       </c>
       <c r="G6" t="n">
-        <v>654499.7076298052</v>
+        <v>654499.7076298054</v>
       </c>
       <c r="H6" t="n">
         <v>654499.7076298052</v>
       </c>
       <c r="I6" t="n">
+        <v>654499.7076298054</v>
+      </c>
+      <c r="J6" t="n">
+        <v>436968.5052325278</v>
+      </c>
+      <c r="K6" t="n">
+        <v>654499.7076298054</v>
+      </c>
+      <c r="L6" t="n">
+        <v>654499.7076298051</v>
+      </c>
+      <c r="M6" t="n">
+        <v>569444.6796942935</v>
+      </c>
+      <c r="N6" t="n">
         <v>654499.7076298052</v>
       </c>
-      <c r="J6" t="n">
-        <v>436968.5052325279</v>
-      </c>
-      <c r="K6" t="n">
-        <v>638239.9560086357</v>
-      </c>
-      <c r="L6" t="n">
-        <v>657667.674002267</v>
-      </c>
-      <c r="M6" t="n">
-        <v>572612.6460667553</v>
-      </c>
-      <c r="N6" t="n">
-        <v>657667.6740022667</v>
-      </c>
       <c r="O6" t="n">
-        <v>657667.6740022671</v>
+        <v>654499.7076298052</v>
       </c>
       <c r="P6" t="n">
-        <v>654499.707629805</v>
+        <v>654499.7076298054</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,13 +26740,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>82.82241001047441</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>147.578749931094</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>60.89510620046685</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>173.2210991443141</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.8907702900228</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>184.9206826248114</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27673,10 +27675,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>103.8147780574967</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>67.09436110065752</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>222.7020862222428</v>
+        <v>14.70460777061464</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>47.07396488271222</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>167.8877327918105</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>570.6116741576925</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>386.7287743289961</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31996,7 +31998,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K14" t="n">
         <v>699.5441750817575</v>
@@ -32075,31 +32077,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O15" t="n">
-        <v>640.7275049411307</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,31 +32314,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>314.105962234273</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>537.7477759959929</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N27" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33512,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>401.521336481369</v>
       </c>
       <c r="L36" t="n">
-        <v>196.3041720119</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>360.9226811202611</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,22 +34216,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>318.3985571819322</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34445,28 +34447,28 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>610.054682604365</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>432.0572943778183</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>244.1325298845517</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O15" t="n">
-        <v>498.1312604966863</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>176.264523259914</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>403.7733685816627</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,19 +36676,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N27" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37160,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>263.67989750701</v>
       </c>
       <c r="L36" t="n">
-        <v>57.74979223202579</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>176.2645232599139</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549929</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016745</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.626661811171</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986645</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919379</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>471.5003028244908</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3680371.916996029</v>
+        <v>3676359.306982036</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7618489.074567025</v>
+        <v>7618489.074567024</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>299.1079600617874</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>78.96122915361011</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>28.03704646958048</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>276.7752671228574</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>169.7623589958716</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>278.1691373745179</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>72.89138480951671</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>158.6152942883796</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>371.1308375505177</v>
       </c>
       <c r="G8" t="n">
-        <v>396.2171178828388</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1341,22 +1341,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>21.88129253963134</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>97.90411925715578</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>59.45282559760398</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>70.0455488112438</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576168</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.0162797694411</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>96.36494467178768</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
-        <v>171.9586765026956</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>79.75167225698534</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,10 +2611,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>29.6738200803744</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>24.27150084979029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>223.8290352905946</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>61.17550840396451</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.67525987919271</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>43.3482415786093</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1517.887535471217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1148.925018530805</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>790.6593199240544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535338</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.7821255545683</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8459426266614</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143257</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1898.974299129321</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1707.288414956147</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.521799525673</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1485.521799525673</v>
+        <v>1647.723571196718</v>
       </c>
       <c r="V4" t="n">
-        <v>1230.837311319786</v>
+        <v>1393.039082990831</v>
       </c>
       <c r="W4" t="n">
-        <v>941.4201412828254</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="X4" t="n">
-        <v>713.4305903848081</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y4" t="n">
-        <v>713.4305903848081</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565139</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624728</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>400.5199879482413</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>400.5199879482413</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136267</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866153</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605073</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,37 +4661,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>627.8744564335971</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>627.8744564335971</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484846</v>
+        <v>1853.666886664739</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278959</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W7" t="n">
-        <v>969.7403902419981</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X7" t="n">
-        <v>809.5229212638368</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y7" t="n">
-        <v>809.5229212638368</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.30093260579</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C8" t="n">
-        <v>1175.30093260579</v>
+        <v>1196.477747641189</v>
       </c>
       <c r="D8" t="n">
-        <v>1175.30093260579</v>
+        <v>838.2120490344389</v>
       </c>
       <c r="E8" t="n">
-        <v>1175.30093260579</v>
+        <v>452.4237964361947</v>
       </c>
       <c r="F8" t="n">
-        <v>764.3150278161827</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
         <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645724</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669912</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>647.3667606649364</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C10" t="n">
-        <v>478.4305777370295</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1815.361775149423</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1593.59515971895</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1304.492292844593</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1049.807804638706</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1049.807804638706</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X10" t="n">
-        <v>1049.807804638706</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y10" t="n">
-        <v>829.0152254951761</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
         <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900017</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4949469776659</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>295.5818533952728</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>295.5818533952728</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>295.5818533952728</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8700222374709</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>662.1522880254209</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>493.2161050975141</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851783</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,25 +5743,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,16 +5843,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.7594328861248</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>390.823249958218</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2023.366912656562</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.29168600076</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.607197794873</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.190027757912</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>962.2004768598947</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.4078977163646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1368.15426255076</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1920.063992790047</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,31 +6244,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3175.341129796739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3006.404946868832</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650098</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3897.172899444211</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3607.75572940725</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3577.782173770509</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3356.989594626978</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6457,13 +6457,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>954.2476448606602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6685,22 +6685,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6794,13 +6794,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,25 +6925,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6955,10 +6955,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3006.417838136243</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3006.417838136243</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.301198723907</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.388105141514</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.8178837532264</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2427.089083702288</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2244.234249357192</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.632784380133</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.557557724331</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.873069518444</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.455899481483</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>963.4663485834661</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.4663485834661</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7730,22 +7730,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>451.6888124356582</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>304.7988649377478</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>137.6027656526277</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21.81301072096155</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>147.3599015160445</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>190.1580536648033</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
-        <v>45.44677382459264</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>206.7713260796057</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>84.24553961896675</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.69998683092898</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>96.94647126761458</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
@@ -26328,34 +26328,34 @@
         <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="N2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26435,13 +26435,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26524,46 +26524,46 @@
         <v>-747043.0719410616</v>
       </c>
       <c r="C6" t="n">
-        <v>581701.6737865307</v>
+        <v>581701.673786531</v>
       </c>
       <c r="D6" t="n">
-        <v>581701.6737865311</v>
+        <v>581701.6737865309</v>
       </c>
       <c r="E6" t="n">
-        <v>329087.24582245</v>
+        <v>328739.8665680928</v>
       </c>
       <c r="F6" t="n">
-        <v>654499.7076298052</v>
+        <v>654152.3283754485</v>
       </c>
       <c r="G6" t="n">
-        <v>654499.7076298054</v>
+        <v>654152.3283754481</v>
       </c>
       <c r="H6" t="n">
-        <v>654499.7076298052</v>
+        <v>654152.3283754479</v>
       </c>
       <c r="I6" t="n">
-        <v>654499.7076298054</v>
+        <v>654152.3283754484</v>
       </c>
       <c r="J6" t="n">
-        <v>436968.5052325278</v>
+        <v>436621.1259781709</v>
       </c>
       <c r="K6" t="n">
-        <v>654499.7076298054</v>
+        <v>654152.3283754482</v>
       </c>
       <c r="L6" t="n">
-        <v>654499.7076298051</v>
+        <v>654152.3283754482</v>
       </c>
       <c r="M6" t="n">
-        <v>569444.6796942935</v>
+        <v>569097.3004399363</v>
       </c>
       <c r="N6" t="n">
-        <v>654499.7076298052</v>
+        <v>654152.3283754481</v>
       </c>
       <c r="O6" t="n">
-        <v>654499.7076298052</v>
+        <v>654152.3283754481</v>
       </c>
       <c r="P6" t="n">
-        <v>654499.7076298054</v>
+        <v>654152.3283754482</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>82.82241001047441</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>307.2767095024435</v>
       </c>
     </row>
     <row r="3">
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60.89510620046685</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>9.436571082755449</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>184.9206826248114</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>128.7069083671935</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>213.3204533960962</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>67.09436110065752</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>35.74520819119374</v>
       </c>
       <c r="G8" t="n">
-        <v>14.70460777061464</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>167.8877327918105</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>127.8055361318814</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>386.7287743289961</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
         <v>699.5441750817575</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>537.7477759959929</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>624.2063432190395</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>318.3985571819322</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34450,13 +34450,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,10 +34465,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>448.9178583921318</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>244.1325298845517</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>403.7733685816627</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>485.6519634391653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>176.2645232599139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,10 +38113,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>314.9434509778015</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3676359.306982036</v>
+        <v>3678119.837284822</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>78.96122915361011</v>
+        <v>78.961229153611</v>
       </c>
     </row>
     <row r="3">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>278.1691373745179</v>
+        <v>278.1691373745188</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>371.1308375505177</v>
+        <v>371.1308375505185</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>70.0455488112438</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4649598217091</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576168</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.295034370327</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>160.1597912951069</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>102.1557845699813</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,19 +4360,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
         <v>1618.75081059268</v>
@@ -4400,10 +4400,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4412,16 +4412,16 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4479,13 +4479,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495403</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>758.7856865549918</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="D5" t="n">
-        <v>400.5199879482413</v>
+        <v>400.5199879482422</v>
       </c>
       <c r="E5" t="n">
-        <v>400.5199879482413</v>
+        <v>400.5199879482422</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559525</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4716,13 +4716,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1565.440264581601</v>
+        <v>1565.440264581602</v>
       </c>
       <c r="C8" t="n">
-        <v>1196.477747641189</v>
+        <v>1196.47774764119</v>
       </c>
       <c r="D8" t="n">
-        <v>838.2120490344389</v>
+        <v>838.2120490344398</v>
       </c>
       <c r="E8" t="n">
-        <v>452.4237964361947</v>
+        <v>452.4237964361956</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
         <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.040104645723</v>
+        <v>1952.040104645724</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4959,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5038,19 +5038,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355936</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
         <v>484.8112968429802</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2126.309465880251</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2126.309465880251</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5937,22 +5937,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
         <v>753.3092412490405</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6217,46 +6217,46 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,19 +6460,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,7 +7010,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
         <v>95.58405025273903</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7736,7 +7736,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>197.0043242297712</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>197.0043242297712</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>147.3599015160445</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>32.79125956324835</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>63.36835372228751</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656086.3271572143</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656086.3271572143</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656086.3271572143</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="F2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055057</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055055</v>
@@ -26337,25 +26337,25 @@
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055055</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26441,13 +26441,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179344</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747043.0719410616</v>
+        <v>-747043.0719410615</v>
       </c>
       <c r="C6" t="n">
-        <v>581701.673786531</v>
+        <v>581701.6737865312</v>
       </c>
       <c r="D6" t="n">
-        <v>581701.6737865309</v>
+        <v>581701.6737865307</v>
       </c>
       <c r="E6" t="n">
-        <v>328739.8665680928</v>
+        <v>329052.5078970144</v>
       </c>
       <c r="F6" t="n">
-        <v>654152.3283754485</v>
+        <v>654464.9697043699</v>
       </c>
       <c r="G6" t="n">
-        <v>654152.3283754481</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="H6" t="n">
-        <v>654152.3283754479</v>
+        <v>654464.9697043692</v>
       </c>
       <c r="I6" t="n">
-        <v>654152.3283754484</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="J6" t="n">
-        <v>436621.1259781709</v>
+        <v>436933.7673070922</v>
       </c>
       <c r="K6" t="n">
-        <v>654152.3283754482</v>
+        <v>654464.9697043699</v>
       </c>
       <c r="L6" t="n">
-        <v>654152.3283754482</v>
+        <v>654464.96970437</v>
       </c>
       <c r="M6" t="n">
-        <v>569097.3004399363</v>
+        <v>569409.941768858</v>
       </c>
       <c r="N6" t="n">
-        <v>654152.3283754481</v>
+        <v>654464.9697043693</v>
       </c>
       <c r="O6" t="n">
-        <v>654152.3283754481</v>
+        <v>654464.9697043692</v>
       </c>
       <c r="P6" t="n">
-        <v>654152.3283754482</v>
+        <v>654464.9697043693</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.2767095024435</v>
+        <v>307.2767095024426</v>
       </c>
     </row>
     <row r="3">
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>128.7069083671935</v>
+        <v>128.7069083671927</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>35.74520819119374</v>
+        <v>35.74520819119289</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34456,31 +34456,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
